--- a/documents/CSSカラーコード.xlsx
+++ b/documents/CSSカラーコード.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509457EC-EAC3-4CA8-800B-8C5D8EA201B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1AF283-8E03-4661-9A8B-D54B9C40646B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="390" windowWidth="16125" windowHeight="10350" xr2:uid="{88E21208-DF4E-41A3-9201-B908B47DEF31}"/>
+    <workbookView xWindow="465" yWindow="1455" windowWidth="14805" windowHeight="10350" xr2:uid="{88E21208-DF4E-41A3-9201-B908B47DEF31}"/>
   </bookViews>
   <sheets>
     <sheet name="CSS" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>背景色</t>
     <rPh sb="0" eb="3">
@@ -77,6 +77,19 @@
   </si>
   <si>
     <t>ボタンの文字の色</t>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しの文字の色</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
     <rPh sb="4" eb="6">
       <t>モジ</t>
     </rPh>
@@ -748,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E897AD-0743-4C66-89F1-78249E0806E7}">
-  <dimension ref="I2:I47"/>
+  <dimension ref="I2:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -776,8 +789,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I47" t="s">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I49" t="s">
         <v>2</v>
       </c>
     </row>
